--- a/result_exporter/summary_configs/unknow_optimal/Caterpillar/Result_Summary.xlsx
+++ b/result_exporter/summary_configs/unknow_optimal/Caterpillar/Result_Summary.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="43" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
@@ -2621,45 +2621,66 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>caterpillar_40_25_483</t>
+          <t>caterpillar_5_4</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>test_width</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="131"/>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>caterpillar_5_4</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>caterpillar_40_25_484</t>
+          <t>caterpillar_5_4</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>test_width</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2667,45 +2688,66 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>caterpillar_40_25_485</t>
+          <t>caterpillar_5_5</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>test_width</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="135"/>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>caterpillar_5_5</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>caterpillar_40_25_486</t>
+          <t>caterpillar_5_5</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>test_width</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2713,45 +2755,66 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>caterpillar_40_25_487</t>
+          <t>caterpillar_5_6</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>test_width</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="139"/>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>caterpillar_5_6</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>caterpillar_40_25_488</t>
+          <t>caterpillar_5_6</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>test_width</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2759,556 +2822,332 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>caterpillar_40_25_493</t>
+          <t>caterpillar_5_7</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>test_width</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="143"/>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>caterpillar_5_7</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>caterpillar_5_4</t>
+          <t>caterpillar_5_7</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>caterpillar_5_4</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="145"/>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>caterpillar_5_4</t>
+          <t>caterpillar_9_4</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="147"/>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>caterpillar_9_4</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>caterpillar_5_5</t>
+          <t>caterpillar_9_4</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>caterpillar_5_5</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="149"/>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>caterpillar_5_5</t>
+          <t>caterpillar_9_5</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="151"/>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>caterpillar_9_5</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>caterpillar_5_6</t>
+          <t>caterpillar_9_5</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>caterpillar_5_6</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="153"/>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>caterpillar_5_6</t>
+          <t>caterpillar_9_6</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
-    <row r="155"/>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>caterpillar_9_6</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>caterpillar_5_7</t>
+          <t>caterpillar_9_6</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>caterpillar_5_7</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="157"/>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>caterpillar_5_7</t>
+          <t>caterpillar_9_7</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
+          <t>binarysearchbfs_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="159"/>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>caterpillar_9_7</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>binarysearchfromLB_highestdegree_4workers</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>caterpillar_9_4</t>
+          <t>caterpillar_9_7</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
+          <t>binarysearchfromUB_highestdegree_4workers</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>caterpillar_9_4</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>caterpillar_9_4</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="163"/>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>caterpillar_9_5</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>caterpillar_9_5</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>caterpillar_9_5</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="167"/>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>caterpillar_9_6</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>caterpillar_9_6</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>caterpillar_9_6</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="171"/>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>caterpillar_9_7</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>binarysearchbfs_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>caterpillar_9_7</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>binarysearchfromLB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>caterpillar_9_7</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>binarysearchfromUB_highestdegree_4workers</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
         <is>
           <t>30</t>
         </is>
